--- a/src/main/resources/EAP_Outcome_Bruce_County.xlsx
+++ b/src/main/resources/EAP_Outcome_Bruce_County.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/workspaces/xmlgenerator/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E92F80-1E43-274A-B43F-6AE375DFEB74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA38C0-4D1D-DA4D-A9FF-1884BC0DFDBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="20740" windowHeight="11160" xr2:uid="{036D6535-D3F5-41D7-8F44-C9A0EDC3E7B9}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="32420" windowHeight="16420" xr2:uid="{036D6535-D3F5-41D7-8F44-C9A0EDC3E7B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome Date revisions" sheetId="1" r:id="rId1"/>
@@ -315,9 +315,6 @@
     <t>22/08/2023</t>
   </si>
   <si>
-    <t>Checkpoint Ref. #</t>
-  </si>
-  <si>
     <t>CURRENT OUTCOME DATE dd/mm/yyyy</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>NEW SCHEDULED DATE 12 MONTH</t>
+  </si>
+  <si>
+    <t>EAP CASE REFERENCE NUMBER</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B53B4C95-1880-4857-8149-CA8569714D0B}" name="SDS NAME" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{98714EA4-0AE4-426B-A0C2-F52332EF92C9}" name="SDS ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4EDEF1B8-9631-4783-8BEE-8C5B7C6F113A}" name="Checkpoint Ref. #" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4EDEF1B8-9631-4783-8BEE-8C5B7C6F113A}" name="EAP CASE REFERENCE NUMBER" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{034AD042-722B-4152-8E53-A9083FDB6E6F}" name="EAP CASE STATUS"/>
     <tableColumn id="3" xr3:uid="{2E24D7C7-E07F-462B-9F42-9F081117EB92}" name="CURRENT OUTCOME DATE dd/mm/yyyy" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{72701E20-32AE-4B8B-B6E9-BFDA84C4C08B}" name="NEW OUTCOME DATE dd/mm/yyyy" dataDxfId="4" dataCellStyle="40% - Accent2"/>
@@ -1205,9 +1205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E7AC53-865D-4541-B410-75C25ED2D303}">
   <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1231,28 +1231,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="G1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="75" t="s">
         <v>101</v>
-      </c>
-      <c r="J1" s="75" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -5124,15 +5124,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9acd6d98-69d4-4656-a966-c0fdab92ac92">
@@ -5141,6 +5132,15 @@
     <TaxCatchAll xmlns="f0937b1b-1dcc-4423-bb81-052000895376" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5373,20 +5373,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD65F92C-2915-4E40-BDE4-896C8BA71ABE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E7A97B-5861-4FF7-9BDD-28D25667D593}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="9acd6d98-69d4-4656-a966-c0fdab92ac92"/>
     <ds:schemaRef ds:uri="f0937b1b-1dcc-4423-bb81-052000895376"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD65F92C-2915-4E40-BDE4-896C8BA71ABE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
